--- a/public/admin/format_import/format_import_pkwt.xlsx
+++ b/public/admin/format_import/format_import_pkwt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89145540-B8B7-4BAE-94E7-BCD14AFD54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB8C88-03AD-4C5D-BB0E-2F679BADDFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -31,75 +31,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>No Surat</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ID Pelamar</t>
   </si>
   <si>
-    <t>ID Perusahaan</t>
-  </si>
-  <si>
-    <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Tanggal Abjad</t>
-  </si>
-  <si>
-    <t>Tahun</t>
-  </si>
-  <si>
-    <t>Tahun Abjad</t>
-  </si>
-  <si>
-    <t>Proyek</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Gaji</t>
-  </si>
-  <si>
-    <t>Insentif</t>
-  </si>
-  <si>
-    <t>Ditanda Tangan Di</t>
-  </si>
-  <si>
-    <t>No. 12/IJI/HR-SERPONG/I/767</t>
-  </si>
-  <si>
-    <t>Dua Puluh Satu</t>
-  </si>
-  <si>
-    <t>Tujuh</t>
-  </si>
-  <si>
-    <t>Dua Ribu Dua Tiga</t>
-  </si>
-  <si>
-    <t>Sengketa</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
-    <t>1.500.000</t>
-  </si>
-  <si>
-    <t>Kalideres</t>
-  </si>
-  <si>
-    <t>Bulan</t>
-  </si>
-  <si>
-    <t>Bulan Abjad</t>
+    <t>ID Addendum</t>
   </si>
 </sst>
 </file>
@@ -439,107 +376,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H18" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>9999</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/format_import/format_import_pkwt.xlsx
+++ b/public/admin/format_import/format_import_pkwt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFB8C88-03AD-4C5D-BB0E-2F679BADDFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114E6CA-E2A7-4842-963C-7076D4EE765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ID Pelamar</t>
   </si>
   <si>
     <t>ID Addendum</t>
+  </si>
+  <si>
+    <t>NO PKWT</t>
   </si>
 </sst>
 </file>
@@ -376,31 +379,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H17:H18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/admin/format_import/format_import_pkwt.xlsx
+++ b/public/admin/format_import/format_import_pkwt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fioju\OneDrive\Documents\GitHub\erpintercipta\public\admin\format_import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3114E6CA-E2A7-4842-963C-7076D4EE765B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8E42FE-9F1B-4449-BA45-2E4E8179BE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>ID Pelamar</t>
   </si>
   <si>
-    <t>ID Addendum</t>
+    <t>NO PKWT</t>
   </si>
   <si>
-    <t>NO PKWT</t>
+    <t>ID Agreement</t>
   </si>
 </sst>
 </file>
@@ -381,9 +381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -393,10 +391,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
